--- a/Formal Documents/Test Cases.xlsx
+++ b/Formal Documents/Test Cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailuc-my.sharepoint.com/personal/eatonko_mail_uc_edu/Documents/Final Semester 2022/Senior Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FallSemester2021\Senior_Design\Planters_Guide\Formal Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{ACE46665-433C-4A99-8E88-4669ACE8CD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DE74E6F-20CF-4598-BFD6-4B78B258DA4C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7C84C4-7CD2-4E6F-9AE9-387BBFCD66D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23295" yWindow="3960" windowWidth="21600" windowHeight="11385" xr2:uid="{CC486DB2-1549-412A-B948-AA9671897DE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC486DB2-1549-412A-B948-AA9671897DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -169,6 +169,24 @@
   </si>
   <si>
     <t>Boundary</t>
+  </si>
+  <si>
+    <t>PI 7</t>
+  </si>
+  <si>
+    <t>Lost connection to App client</t>
+  </si>
+  <si>
+    <t>If the data is not fully transferred to the app or it cannot connect, make sure that the server knows and retries until a reconnect.</t>
+  </si>
+  <si>
+    <t>Lost Connection to Client</t>
+  </si>
+  <si>
+    <t>Server recognition and attempts at resending</t>
+  </si>
+  <si>
+    <t>Abnormal/Boundary</t>
   </si>
 </sst>
 </file>
@@ -525,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F77A4A2-9DAE-4B6A-9B45-2A3315B2903E}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,8 +763,34 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="1"/>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
